--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>732264.4810476542</v>
+        <v>599531.5241170553</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024513.944021089</v>
+        <v>978831.7731342114</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23321713.05990238</v>
+        <v>23297519.74264081</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4785191.28751401</v>
+        <v>4799667.452148323</v>
       </c>
     </row>
     <row r="11">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>25.75359370674563</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="H11" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="I11" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>33.23778270690805</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>33.23778270690803</v>
       </c>
     </row>
     <row r="13">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>33.23778270690803</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,31 +1730,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3.224589128737031</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>33.23778270690805</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
     </row>
     <row r="16">
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="G17" t="n">
-        <v>45.55924250423406</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>45.55924250423406</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
     </row>
     <row r="19">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>59.75657007276242</v>
       </c>
       <c r="E20" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.55924250423406</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="R20" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>37.22756549475386</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="T21" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>23.03023792622547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2332,55 +2332,55 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>66.59218285739217</v>
       </c>
-      <c r="H23" t="n">
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="I23" t="n">
+      <c r="V23" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,55 +2417,55 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="T24" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="U24" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="V24" t="n">
         <v>68.00583860436758</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.59218285739217</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="S26" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="T26" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,67 +2642,67 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>68.00583860436758</v>
-      </c>
-      <c r="G27" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
     </row>
     <row r="28">
@@ -2794,67 +2794,67 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="S29" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="T29" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>66.59218285739217</v>
-      </c>
-      <c r="D29" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="E29" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="F29" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,70 +2870,70 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>68.00583860436758</v>
+      </c>
+      <c r="U30" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="V30" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="G30" t="n">
-        <v>68.00583860436758</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="W30" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>66.59218285739217</v>
       </c>
-      <c r="V32" t="n">
-        <v>77.20917189415033</v>
-      </c>
       <c r="W32" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,76 +3107,76 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>68.00583860436758</v>
-      </c>
-      <c r="I33" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>68.00583860436758</v>
       </c>
     </row>
     <row r="34">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>67.84351733964857</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>59.75657007276244</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,76 +3344,76 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>58.29370945070387</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W36" t="n">
-        <v>67.84351733964857</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="X36" t="n">
-        <v>1.462860622058546</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>59.75657007276241</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,70 +3584,70 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="V39" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="F39" t="n">
+      <c r="W39" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>59.75657007276244</v>
-      </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>33.23778270690805</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>33.23778270690804</v>
       </c>
       <c r="W42" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="G44" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>33.23778270690805</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="S45" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="T45" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="U45" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>45.35754004913036</v>
+        <v>10.70877812889944</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="C11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="D11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="E11" t="n">
-        <v>116.9554664248212</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="F11" t="n">
-        <v>116.9554664248212</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="G11" t="n">
-        <v>90.94173540790645</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="H11" t="n">
-        <v>61.40752671476977</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I11" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L11" t="n">
-        <v>31.28558726863968</v>
+        <v>40.37741541370529</v>
       </c>
       <c r="M11" t="n">
-        <v>60.23206520878293</v>
+        <v>77.73595864694663</v>
       </c>
       <c r="N11" t="n">
-        <v>89.17854314892618</v>
+        <v>113.585065789956</v>
       </c>
       <c r="O11" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="P11" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="R11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="S11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="T11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="U11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="V11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="W11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="X11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.9554664248212</v>
+        <v>117.3700911374316</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C12" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D12" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E12" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F12" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G12" t="n">
-        <v>90.94173540790645</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H12" t="n">
-        <v>61.40752671476977</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I12" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J12" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K12" t="n">
-        <v>2.339109328496424</v>
+        <v>31.28456612871674</v>
       </c>
       <c r="L12" t="n">
-        <v>30.11603260439146</v>
+        <v>47.28004461657144</v>
       </c>
       <c r="M12" t="n">
-        <v>59.06251054453472</v>
+        <v>84.63858784981278</v>
       </c>
       <c r="N12" t="n">
-        <v>88.00898848467797</v>
+        <v>121.9971310830541</v>
       </c>
       <c r="O12" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="P12" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="R12" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="S12" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="T12" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="U12" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="V12" t="n">
-        <v>116.9554664248212</v>
+        <v>112.8265360375414</v>
       </c>
       <c r="W12" t="n">
-        <v>116.9554664248212</v>
+        <v>74.70946305188554</v>
       </c>
       <c r="X12" t="n">
-        <v>116.9554664248212</v>
+        <v>36.59239006622963</v>
       </c>
       <c r="Y12" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="M13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="N13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="O13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="P13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="R13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="S13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="T13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="U13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="V13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="W13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="X13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C14" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D14" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E14" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F14" t="n">
-        <v>116.9554664248212</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G14" t="n">
-        <v>90.94173540790645</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H14" t="n">
-        <v>61.40752671476977</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I14" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L14" t="n">
-        <v>16.16154619805366</v>
+        <v>40.37741541370529</v>
       </c>
       <c r="M14" t="n">
-        <v>45.10802413819691</v>
+        <v>76.22652255671468</v>
       </c>
       <c r="N14" t="n">
-        <v>74.05450207834016</v>
+        <v>113.585065789956</v>
       </c>
       <c r="O14" t="n">
-        <v>103.0009800184834</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="P14" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="R14" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="S14" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="T14" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="U14" t="n">
-        <v>116.9554664248212</v>
+        <v>112.8265360375414</v>
       </c>
       <c r="V14" t="n">
-        <v>116.9554664248212</v>
+        <v>112.8265360375414</v>
       </c>
       <c r="W14" t="n">
-        <v>116.9554664248212</v>
+        <v>74.70946305188554</v>
       </c>
       <c r="X14" t="n">
-        <v>116.9554664248212</v>
+        <v>36.59239006622963</v>
       </c>
       <c r="Y14" t="n">
-        <v>116.9554664248212</v>
+        <v>36.59239006622963</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J15" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K15" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L15" t="n">
-        <v>30.11603260439149</v>
+        <v>40.37741541370529</v>
       </c>
       <c r="M15" t="n">
-        <v>59.06251054453475</v>
+        <v>77.73595864694663</v>
       </c>
       <c r="N15" t="n">
-        <v>88.008988484678</v>
+        <v>115.094501880188</v>
       </c>
       <c r="O15" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="P15" t="n">
-        <v>116.9554664248212</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.19889614400446</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="R15" t="n">
-        <v>64.66468745086779</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="S15" t="n">
-        <v>35.13047875773111</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="T15" t="n">
-        <v>31.8733180216331</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="U15" t="n">
-        <v>31.8733180216331</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="V15" t="n">
-        <v>31.8733180216331</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="W15" t="n">
-        <v>31.8733180216331</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="X15" t="n">
-        <v>31.8733180216331</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="Y15" t="n">
-        <v>31.8733180216331</v>
+        <v>3.018872180463947</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="M16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="N16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="O16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="P16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="R16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="S16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="T16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="U16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="V16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="W16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="X16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.018872180463947</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="C17" t="n">
-        <v>206.8993755868941</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D17" t="n">
-        <v>206.8993755868941</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="E17" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="F17" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G17" t="n">
-        <v>160.8799387139304</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H17" t="n">
-        <v>108.6326216465329</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I17" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J17" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K17" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L17" t="n">
-        <v>39.32210280728744</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M17" t="n">
-        <v>90.52969826504372</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N17" t="n">
-        <v>141.7372937228</v>
+        <v>197.7239375148261</v>
       </c>
       <c r="O17" t="n">
-        <v>192.9448891805563</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W17" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="X17" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="Y17" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C18" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D18" t="n">
-        <v>154.6520585194966</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E18" t="n">
-        <v>102.4047414520991</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F18" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G18" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H18" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I18" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J18" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K18" t="n">
-        <v>32.40368145999067</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L18" t="n">
-        <v>81.84133754035554</v>
+        <v>72.59256355342397</v>
       </c>
       <c r="M18" t="n">
-        <v>126.7453021889946</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="N18" t="n">
-        <v>177.9528976467508</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="O18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U18" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V18" t="n">
-        <v>206.8993755868941</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W18" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="X18" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="Y18" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.6326216465329</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="C20" t="n">
-        <v>108.6326216465329</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D20" t="n">
-        <v>108.6326216465329</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E20" t="n">
-        <v>56.38530457913537</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F20" t="n">
-        <v>4.137987511737881</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L20" t="n">
-        <v>55.34558296949416</v>
+        <v>55.92433645350013</v>
       </c>
       <c r="M20" t="n">
-        <v>106.5531784272504</v>
+        <v>123.0894186197522</v>
       </c>
       <c r="N20" t="n">
-        <v>157.7607738850067</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O20" t="n">
-        <v>192.9448891805562</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P20" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q20" t="n">
-        <v>160.8799387139304</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6326216465329</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="S20" t="n">
-        <v>108.6326216465329</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T20" t="n">
-        <v>108.6326216465329</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U20" t="n">
-        <v>108.6326216465329</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V20" t="n">
-        <v>108.6326216465329</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W20" t="n">
-        <v>108.6326216465329</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="X20" t="n">
-        <v>108.6326216465329</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="Y20" t="n">
-        <v>108.6326216465329</v>
+        <v>134.3164585714254</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="C21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="D21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="E21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="F21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="G21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="H21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="I21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="J21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K21" t="n">
-        <v>4.137987511737881</v>
+        <v>33.6931753354247</v>
       </c>
       <c r="L21" t="n">
-        <v>55.34558296949416</v>
+        <v>100.8582575016768</v>
       </c>
       <c r="M21" t="n">
-        <v>104.4841846713815</v>
+        <v>145.7622221503159</v>
       </c>
       <c r="N21" t="n">
-        <v>155.6917801291378</v>
+        <v>212.927304316568</v>
       </c>
       <c r="O21" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P21" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q21" t="n">
-        <v>184.1428053060773</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="R21" t="n">
-        <v>184.1428053060773</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="S21" t="n">
-        <v>184.1428053060773</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="T21" t="n">
-        <v>131.8954882386798</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="U21" t="n">
-        <v>79.64817117128231</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="V21" t="n">
-        <v>27.40085410388483</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="W21" t="n">
-        <v>27.40085410388483</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="X21" t="n">
-        <v>27.40085410388483</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.137987511737881</v>
+        <v>43.03108289702428</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="C23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G23" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H23" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I23" t="n">
         <v>6.176733751532026</v>
@@ -6010,31 +6010,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q23" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="R23" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="S23" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="T23" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="U23" t="n">
-        <v>307.4087524786464</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="V23" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I24" t="n">
         <v>6.176733751532026</v>
@@ -6071,13 +6071,13 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K24" t="n">
-        <v>6.176733751532026</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L24" t="n">
-        <v>82.61381392674085</v>
+        <v>110.8795078749937</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0508941019497</v>
+        <v>155.9625272261837</v>
       </c>
       <c r="N24" t="n">
         <v>232.3996074013925</v>
@@ -6095,25 +6095,25 @@
         <v>308.8366875766013</v>
       </c>
       <c r="S24" t="n">
-        <v>308.8366875766013</v>
+        <v>230.8476250572575</v>
       </c>
       <c r="T24" t="n">
-        <v>308.8366875766013</v>
+        <v>152.8585625379138</v>
       </c>
       <c r="U24" t="n">
-        <v>308.8366875766013</v>
+        <v>74.86950001856999</v>
       </c>
       <c r="V24" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W24" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X24" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y24" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="25">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.176733751532026</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="C26" t="n">
-        <v>6.176733751532026</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="D26" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E26" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F26" t="n">
         <v>6.176733751532026</v>
@@ -6247,31 +6247,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="R26" t="n">
-        <v>162.1548587902196</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="S26" t="n">
-        <v>84.1657962708758</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="T26" t="n">
-        <v>6.176733751532026</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="U26" t="n">
-        <v>6.176733751532026</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="V26" t="n">
-        <v>6.176733751532026</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="W26" t="n">
-        <v>6.176733751532026</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="X26" t="n">
-        <v>6.176733751532026</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.176733751532026</v>
+        <v>229.4196899593026</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C27" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D27" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E27" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F27" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G27" t="n">
         <v>6.176733751532026</v>
@@ -6314,13 +6314,13 @@
         <v>110.8795078749937</v>
       </c>
       <c r="M27" t="n">
-        <v>155.7834725236327</v>
+        <v>187.3165880502025</v>
       </c>
       <c r="N27" t="n">
-        <v>222.9485546898848</v>
+        <v>263.7536682254113</v>
       </c>
       <c r="O27" t="n">
-        <v>251.8950326300281</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P27" t="n">
         <v>308.8366875766013</v>
@@ -6338,19 +6338,19 @@
         <v>308.8366875766013</v>
       </c>
       <c r="U27" t="n">
-        <v>308.8366875766013</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="V27" t="n">
-        <v>230.8476250572575</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="W27" t="n">
-        <v>230.8476250572575</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X27" t="n">
-        <v>230.8476250572575</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y27" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="28">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>307.4087524786464</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C29" t="n">
-        <v>240.1439213095634</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D29" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E29" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F29" t="n">
         <v>6.176733751532026</v>
@@ -6487,28 +6487,28 @@
         <v>307.4087524786464</v>
       </c>
       <c r="R29" t="n">
-        <v>307.4087524786464</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="S29" t="n">
-        <v>307.4087524786464</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="T29" t="n">
-        <v>307.4087524786464</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="U29" t="n">
-        <v>307.4087524786464</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="V29" t="n">
-        <v>307.4087524786464</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="W29" t="n">
-        <v>307.4087524786464</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X29" t="n">
-        <v>307.4087524786464</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.4087524786464</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C30" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D30" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E30" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F30" t="n">
-        <v>74.86950001856999</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G30" t="n">
         <v>6.176733751532026</v>
@@ -6572,22 +6572,22 @@
         <v>308.8366875766013</v>
       </c>
       <c r="T30" t="n">
-        <v>230.8476250572575</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="U30" t="n">
-        <v>230.8476250572575</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="V30" t="n">
-        <v>230.8476250572575</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W30" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X30" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y30" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="31">
@@ -6724,22 +6724,22 @@
         <v>307.4087524786464</v>
       </c>
       <c r="R32" t="n">
-        <v>307.4087524786464</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="S32" t="n">
-        <v>307.4087524786464</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="T32" t="n">
-        <v>307.4087524786464</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="U32" t="n">
-        <v>240.1439213095634</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="V32" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W32" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X32" t="n">
         <v>6.176733751532026</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C33" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D33" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E33" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F33" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G33" t="n">
-        <v>152.8585625379138</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H33" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I33" t="n">
         <v>6.176733751532026</v>
@@ -6782,10 +6782,10 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K33" t="n">
-        <v>6.176733751532026</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L33" t="n">
-        <v>79.52544705097486</v>
+        <v>110.8795078749937</v>
       </c>
       <c r="M33" t="n">
         <v>155.9625272261837</v>
@@ -6815,16 +6815,16 @@
         <v>308.8366875766013</v>
       </c>
       <c r="V33" t="n">
-        <v>308.8366875766013</v>
+        <v>230.8476250572575</v>
       </c>
       <c r="W33" t="n">
-        <v>230.8476250572575</v>
+        <v>152.8585625379138</v>
       </c>
       <c r="X33" t="n">
-        <v>230.8476250572575</v>
+        <v>74.86950001856999</v>
       </c>
       <c r="Y33" t="n">
-        <v>230.8476250572575</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="34">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="C35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="D35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="E35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="F35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="G35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="H35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="I35" t="n">
         <v>5.427481387171886</v>
@@ -6946,7 +6946,7 @@
         <v>63.3937731823219</v>
       </c>
       <c r="M35" t="n">
-        <v>123.0894186197522</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N35" t="n">
         <v>190.2545007860043</v>
@@ -6961,28 +6961,28 @@
         <v>202.8452639650098</v>
       </c>
       <c r="R35" t="n">
-        <v>202.8452639650098</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="S35" t="n">
-        <v>202.8452639650098</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="T35" t="n">
-        <v>202.8452639650098</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="U35" t="n">
-        <v>202.8452639650098</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="V35" t="n">
-        <v>202.8452639650098</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="W35" t="n">
-        <v>142.4850921743407</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="X35" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.427481387171886</v>
+        <v>65.78765317784099</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I36" t="n">
-        <v>64.31001618586266</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J36" t="n">
         <v>5.427481387171886</v>
@@ -7022,13 +7022,13 @@
         <v>33.6931753354247</v>
       </c>
       <c r="L36" t="n">
-        <v>69.87882285983801</v>
+        <v>100.8582575016768</v>
       </c>
       <c r="M36" t="n">
-        <v>137.0439050260901</v>
+        <v>168.0233396679289</v>
       </c>
       <c r="N36" t="n">
-        <v>204.2089871923422</v>
+        <v>235.188421834181</v>
       </c>
       <c r="O36" t="n">
         <v>271.3740693585943</v>
@@ -7046,22 +7046,22 @@
         <v>271.3740693585943</v>
       </c>
       <c r="T36" t="n">
-        <v>271.3740693585943</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U36" t="n">
-        <v>271.3740693585943</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V36" t="n">
-        <v>271.3740693585943</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="W36" t="n">
-        <v>202.8452639650098</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X36" t="n">
-        <v>201.3676269730315</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y36" t="n">
-        <v>132.8388215794471</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="37">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>65.78765317784099</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="C38" t="n">
-        <v>5.427481387171886</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="D38" t="n">
-        <v>5.427481387171886</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="E38" t="n">
-        <v>5.427481387171886</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="F38" t="n">
-        <v>5.427481387171886</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G38" t="n">
         <v>5.427481387171886</v>
@@ -7183,10 +7183,10 @@
         <v>63.3937731823219</v>
       </c>
       <c r="M38" t="n">
-        <v>130.558855348574</v>
+        <v>123.0894186197522</v>
       </c>
       <c r="N38" t="n">
-        <v>197.7239375148261</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O38" t="n">
         <v>257.4195829522564</v>
@@ -7198,28 +7198,28 @@
         <v>271.3740693585943</v>
       </c>
       <c r="R38" t="n">
-        <v>202.8452639650098</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S38" t="n">
-        <v>202.8452639650098</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T38" t="n">
-        <v>202.8452639650098</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="U38" t="n">
-        <v>202.8452639650098</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V38" t="n">
-        <v>202.8452639650098</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="W38" t="n">
-        <v>134.3164585714254</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="X38" t="n">
-        <v>134.3164585714254</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="Y38" t="n">
-        <v>65.78765317784099</v>
+        <v>142.4850921743407</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>211.0138975679251</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C39" t="n">
-        <v>142.4850921743407</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D39" t="n">
-        <v>142.4850921743407</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E39" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F39" t="n">
         <v>5.427481387171886</v>
@@ -7256,10 +7256,10 @@
         <v>5.427481387171886</v>
       </c>
       <c r="K39" t="n">
-        <v>5.427481387171886</v>
+        <v>24.97485821119895</v>
       </c>
       <c r="L39" t="n">
-        <v>72.59256355342397</v>
+        <v>92.13994037745104</v>
       </c>
       <c r="M39" t="n">
         <v>137.0439050260901</v>
@@ -7286,19 +7286,19 @@
         <v>271.3740693585943</v>
       </c>
       <c r="U39" t="n">
-        <v>271.3740693585943</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V39" t="n">
-        <v>271.3740693585943</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W39" t="n">
-        <v>211.0138975679251</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="X39" t="n">
-        <v>211.0138975679251</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y39" t="n">
-        <v>211.0138975679251</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="40">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.44430022325403</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="C41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L41" t="n">
-        <v>32.76377984426642</v>
+        <v>40.37741541370529</v>
       </c>
       <c r="M41" t="n">
-        <v>77.66774449290548</v>
+        <v>77.73595864694663</v>
       </c>
       <c r="N41" t="n">
-        <v>122.5717091415445</v>
+        <v>99.63057938361817</v>
       </c>
       <c r="O41" t="n">
-        <v>167.4756737901836</v>
+        <v>136.9891226168595</v>
       </c>
       <c r="P41" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.0756942619012</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="R41" t="n">
-        <v>141.0756942619012</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="S41" t="n">
-        <v>141.0756942619012</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="T41" t="n">
-        <v>141.0756942619012</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="U41" t="n">
-        <v>141.0756942619012</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="V41" t="n">
-        <v>141.0756942619012</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="W41" t="n">
-        <v>141.0756942619012</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="X41" t="n">
-        <v>141.0756942619012</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="Y41" t="n">
-        <v>95.25999724257764</v>
+        <v>41.13594516611985</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>43.98306913855064</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="C42" t="n">
-        <v>3.628603203930429</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="D42" t="n">
-        <v>3.628603203930429</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="E42" t="n">
-        <v>3.628603203930429</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="F42" t="n">
-        <v>3.628603203930429</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="G42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L42" t="n">
-        <v>48.53256785256949</v>
+        <v>40.37741541370529</v>
       </c>
       <c r="M42" t="n">
-        <v>93.43653250120855</v>
+        <v>77.73595864694663</v>
       </c>
       <c r="N42" t="n">
-        <v>138.3404971498476</v>
+        <v>115.094501880188</v>
       </c>
       <c r="O42" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="P42" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q42" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="R42" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="S42" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="T42" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="U42" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8265360375414</v>
       </c>
       <c r="V42" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="W42" t="n">
-        <v>135.6144631771978</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="X42" t="n">
-        <v>135.6144631771978</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.79876615787424</v>
+        <v>41.13594516611985</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="M43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="N43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="O43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="P43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="R43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="S43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="T43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="U43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="V43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="W43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="X43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>95.25999724257764</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="C44" t="n">
-        <v>95.25999724257764</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="D44" t="n">
-        <v>95.25999724257764</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="E44" t="n">
-        <v>95.25999724257764</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="F44" t="n">
-        <v>49.44430022325403</v>
+        <v>41.13594516611985</v>
       </c>
       <c r="G44" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H44" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I44" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J44" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K44" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L44" t="n">
-        <v>48.53256785256949</v>
+        <v>24.91349291713549</v>
       </c>
       <c r="M44" t="n">
-        <v>93.43653250120855</v>
+        <v>62.27203615037683</v>
       </c>
       <c r="N44" t="n">
-        <v>138.3404971498476</v>
+        <v>99.63057938361817</v>
       </c>
       <c r="O44" t="n">
-        <v>167.4756737901836</v>
+        <v>136.9891226168595</v>
       </c>
       <c r="P44" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.4301601965215</v>
+        <v>117.3700911374316</v>
       </c>
       <c r="R44" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="S44" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="T44" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="U44" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="V44" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="W44" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="X44" t="n">
-        <v>181.4301601965215</v>
+        <v>79.25301815177575</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.0756942619012</v>
+        <v>79.25301815177575</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K45" t="n">
-        <v>3.628603203930429</v>
+        <v>31.28456612871677</v>
       </c>
       <c r="L45" t="n">
-        <v>48.53256785256949</v>
+        <v>45.50497373796585</v>
       </c>
       <c r="M45" t="n">
-        <v>93.43653250120855</v>
+        <v>82.86351697120719</v>
       </c>
       <c r="N45" t="n">
-        <v>138.3404971498476</v>
+        <v>120.2220602044485</v>
       </c>
       <c r="O45" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="P45" t="n">
-        <v>181.4301601965215</v>
+        <v>150.9436090231974</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.4301601965215</v>
+        <v>128.1870387423806</v>
       </c>
       <c r="R45" t="n">
-        <v>181.4301601965215</v>
+        <v>90.06996575672468</v>
       </c>
       <c r="S45" t="n">
-        <v>135.6144631771978</v>
+        <v>51.95289277106878</v>
       </c>
       <c r="T45" t="n">
-        <v>89.79876615787424</v>
+        <v>13.83581978541288</v>
       </c>
       <c r="U45" t="n">
-        <v>49.44430022325403</v>
+        <v>13.83581978541288</v>
       </c>
       <c r="V45" t="n">
-        <v>49.44430022325403</v>
+        <v>13.83581978541288</v>
       </c>
       <c r="W45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="X45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="C46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="D46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="E46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="F46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="G46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="H46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="I46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="J46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="K46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="L46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="M46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="N46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="O46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="P46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="R46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="S46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="T46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="U46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="V46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="W46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="X46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.628603203930429</v>
+        <v>3.018872180463947</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>57.07593346819701</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P3" t="n">
-        <v>67.92252959633598</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8300,7 +8300,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>57.07593346819698</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M6" t="n">
         <v>38.00954882322068</v>
@@ -8312,7 +8312,7 @@
         <v>49.04422963853119</v>
       </c>
       <c r="P6" t="n">
-        <v>67.92252959633595</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>107.302894168841</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N8" t="n">
-        <v>102.2233138913027</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>50.74389277147904</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M9" t="n">
-        <v>30.6203559932157</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N9" t="n">
-        <v>10.14528753165277</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O9" t="n">
-        <v>42.10565350127516</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P9" t="n">
-        <v>62.35371053051014</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>79.27897249523153</v>
+        <v>87.77600814482557</v>
       </c>
       <c r="M11" t="n">
-        <v>38.13372987968438</v>
+        <v>46.63076552927841</v>
       </c>
       <c r="N11" t="n">
-        <v>31.46180477983035</v>
+        <v>38.43415750999816</v>
       </c>
       <c r="O11" t="n">
-        <v>49.85637349264336</v>
+        <v>59.53477748996283</v>
       </c>
       <c r="P11" t="n">
         <v>69.57222331010286</v>
@@ -8771,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>13.69345016832928</v>
+        <v>1.793000887480449</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>64.00216333302343</v>
+        <v>87.77600814482551</v>
       </c>
       <c r="M14" t="n">
-        <v>38.13372987968438</v>
+        <v>45.1060826098522</v>
       </c>
       <c r="N14" t="n">
-        <v>31.46180477983035</v>
+        <v>39.9588404294243</v>
       </c>
       <c r="O14" t="n">
-        <v>51.03774184036882</v>
+        <v>59.53477748996278</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L15" t="n">
-        <v>13.69345016832931</v>
+        <v>23.37185416564875</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>6.972352730167799</v>
       </c>
       <c r="P15" t="n">
         <v>5.093443300258059</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>85.57961628857123</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>60.61970717020256</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N17" t="n">
-        <v>53.94778207034852</v>
+        <v>70.06645551327355</v>
       </c>
       <c r="O17" t="n">
-        <v>73.523719130887</v>
+        <v>82.0975069891436</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,19 +9245,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>35.57297825365234</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>19.74482507477482</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9406,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>101.7649497857497</v>
+        <v>101.0470301984486</v>
       </c>
       <c r="M20" t="n">
-        <v>60.61970717020259</v>
+        <v>76.73838061312767</v>
       </c>
       <c r="N20" t="n">
-        <v>53.9477820703485</v>
+        <v>70.06645551327358</v>
       </c>
       <c r="O20" t="n">
-        <v>57.33838563370841</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,19 +9482,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>37.36079580657292</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M21" t="n">
-        <v>4.277411164897266</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.48597729051821</v>
+        <v>29.79826979988189</v>
       </c>
       <c r="P21" t="n">
         <v>5.093443300258059</v>
@@ -9719,16 +9719,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
         <v>62.84512380399974</v>
       </c>
       <c r="M24" t="n">
-        <v>31.85163184501997</v>
+        <v>0.1808633359100611</v>
       </c>
       <c r="N24" t="n">
-        <v>6.246092053728034</v>
+        <v>9.365654554501759</v>
       </c>
       <c r="O24" t="n">
         <v>47.97030528794502</v>
@@ -9962,16 +9962,16 @@
         <v>62.84512380399974</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>31.85163184501997</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>9.365654554501759</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>16.29953677883515</v>
       </c>
       <c r="P27" t="n">
-        <v>62.61026647861487</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10430,13 +10430,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>59.72556130322602</v>
+        <v>62.84512380399974</v>
       </c>
       <c r="M33" t="n">
-        <v>31.85163184501997</v>
+        <v>0.1808633359100611</v>
       </c>
       <c r="N33" t="n">
         <v>9.365654554501759</v>
@@ -10594,10 +10594,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>69.1934950284592</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N35" t="n">
-        <v>70.06645551327358</v>
+        <v>62.52156992860511</v>
       </c>
       <c r="O35" t="n">
         <v>89.64239257381206</v>
@@ -10670,7 +10670,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>22.1871110254184</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M36" t="n">
         <v>22.48597729051821</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>38.60465073344326</v>
+        <v>7.312292509363679</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10831,13 +10831,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>76.73838061312765</v>
+        <v>69.1934950284592</v>
       </c>
       <c r="N38" t="n">
-        <v>70.06645551327355</v>
+        <v>70.06645551327358</v>
       </c>
       <c r="O38" t="n">
-        <v>82.0975069891436</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,13 +10904,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493427</v>
+        <v>59.95458068970908</v>
       </c>
       <c r="L39" t="n">
         <v>53.47946924949798</v>
       </c>
       <c r="M39" t="n">
-        <v>19.74482507477482</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>79.46957724290091</v>
+        <v>87.77600814482551</v>
       </c>
       <c r="M41" t="n">
-        <v>54.25240332260944</v>
+        <v>46.63076552927841</v>
       </c>
       <c r="N41" t="n">
-        <v>47.58047822275535</v>
+        <v>24.33871669551543</v>
       </c>
       <c r="O41" t="n">
-        <v>67.15641528329382</v>
+        <v>59.53477748996278</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11144,7 +11144,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L42" t="n">
-        <v>30.99349195897977</v>
+        <v>23.37185416564875</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.28604556215212</v>
+        <v>6.972352730167799</v>
       </c>
       <c r="P42" t="n">
         <v>5.093443300258059</v>
@@ -11299,19 +11299,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L44" t="n">
-        <v>95.39764593815653</v>
+        <v>72.1558844109166</v>
       </c>
       <c r="M44" t="n">
-        <v>54.25240332260944</v>
+        <v>46.63076552927839</v>
       </c>
       <c r="N44" t="n">
-        <v>47.58047822275535</v>
+        <v>39.9588404294243</v>
       </c>
       <c r="O44" t="n">
-        <v>51.22834658803821</v>
+        <v>59.53477748996278</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>30.99349195897977</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.28604556215212</v>
+        <v>1.793000887480378</v>
       </c>
       <c r="P45" t="n">
         <v>5.093443300258059</v>
@@ -22561,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.3372670711946</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H2" t="n">
-        <v>351.2646082720821</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I2" t="n">
-        <v>259.3256225831108</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4715681708149</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K2" t="n">
-        <v>78.22308851520964</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40184904719007</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P2" t="n">
-        <v>74.33416843326194</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.6151832766775</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R2" t="n">
-        <v>219.5016765828794</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S2" t="n">
-        <v>238.8380493076577</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0295900296067</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8013691764946</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0988061285559</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H3" t="n">
-        <v>138.5600717100643</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I3" t="n">
-        <v>119.8373846403433</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J3" t="n">
-        <v>89.37922894870135</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K3" t="n">
-        <v>24.57889804244017</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.52858488856607</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R3" t="n">
-        <v>159.5976691093343</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S3" t="n">
-        <v>209.5797834947361</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4332280611984</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.30467002737</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2025540396188</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I4" t="n">
-        <v>169.8493025891331</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J4" t="n">
-        <v>137.2497006419296</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L4" t="n">
-        <v>71.46654840866279</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M4" t="n">
-        <v>68.6653364331837</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O4" t="n">
-        <v>80.66114959698194</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.5243583765053</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R4" t="n">
-        <v>224.2138859994434</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9169435351811</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3869624620415</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22810,7 +22810,7 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>78.22308851520961</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L5" t="n">
         <v>38.49084836766588</v>
@@ -22822,10 +22822,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.40184904719004</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P5" t="n">
-        <v>74.33416843326191</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q5" t="n">
         <v>134.6151832766775</v>
@@ -22889,7 +22889,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>24.57889804244016</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.52858488856606</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R6" t="n">
         <v>159.5976691093343</v>
@@ -22971,16 +22971,16 @@
         <v>95.63058149505842</v>
       </c>
       <c r="L7" t="n">
-        <v>71.46654840866277</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M7" t="n">
-        <v>68.66533643318368</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N7" t="n">
         <v>56.06123914516952</v>
       </c>
       <c r="O7" t="n">
-        <v>80.66114959698193</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P7" t="n">
         <v>98.35025284028562</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.2827619376</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H8" t="n">
-        <v>350.7064075726563</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I8" t="n">
-        <v>257.2243134202044</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J8" t="n">
-        <v>109.8455130883889</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K8" t="n">
-        <v>71.28983112772357</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L8" t="n">
-        <v>29.88952949793364</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21834721925035</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P8" t="n">
-        <v>66.49626209093927</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q8" t="n">
-        <v>128.729242031212</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R8" t="n">
-        <v>216.0778684847166</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S8" t="n">
-        <v>237.5960135758704</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T8" t="n">
-        <v>219.7909938072963</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U8" t="n">
-        <v>248.797008765807</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0696433110859</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H9" t="n">
-        <v>138.2784202887095</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I9" t="n">
-        <v>118.8333139511355</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J9" t="n">
-        <v>86.62398223325843</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K9" t="n">
-        <v>19.86974255650813</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.80597681994108</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R9" t="n">
-        <v>157.7870162843118</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S9" t="n">
-        <v>209.0380969509405</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T9" t="n">
-        <v>230.3156814416593</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6531516398494</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2802209008457</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H10" t="n">
-        <v>167.9851790783391</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I10" t="n">
-        <v>169.1140506751113</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J10" t="n">
-        <v>135.5211473966612</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K10" t="n">
-        <v>92.79003752250725</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L10" t="n">
-        <v>67.83163008885825</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M10" t="n">
-        <v>64.83282471810544</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N10" t="n">
-        <v>52.31985599259097</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O10" t="n">
-        <v>77.20537669516459</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P10" t="n">
-        <v>95.39324211956412</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q10" t="n">
-        <v>155.4770774272746</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R10" t="n">
-        <v>223.1145643649959</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S10" t="n">
-        <v>244.4908619392985</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T10" t="n">
-        <v>218.2824980123467</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2220803233143</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23266,22 +23266,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>322.222652680488</v>
       </c>
       <c r="F11" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9687301059741</v>
+        <v>383.9864215569204</v>
       </c>
       <c r="H11" t="n">
-        <v>315.7279540200221</v>
+        <v>307.2309183704281</v>
       </c>
       <c r="I11" t="n">
-        <v>206.379156004557</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>33.04016118063686</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.20822947306053</v>
+        <v>34.97044676615248</v>
       </c>
       <c r="R11" t="n">
         <v>180.8732471227138</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0161887717688</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>106.1435293258269</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>79.27029148665741</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>29.05484284449858</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>249.633423953496</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>211.564022924373</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>245.5133545071318</v>
       </c>
       <c r="X12" t="n">
-        <v>230.033063710963</v>
+        <v>192.2971614551636</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>209.6584837066853</v>
       </c>
     </row>
     <row r="13">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>331.3185448901551</v>
       </c>
       <c r="C14" t="n">
         <v>333.5971194742085</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9687301059741</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>206.379156004557</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>33.04016118063686</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R14" t="n">
         <v>180.8732471227138</v>
@@ -23551,16 +23551,16 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>211.0162714600172</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>287.6558232234941</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>311.0809770477136</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23597,7 +23597,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>29.05484284449858</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,31 +23618,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R15" t="n">
-        <v>109.9304744768696</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S15" t="n">
-        <v>174.2294468976288</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T15" t="n">
-        <v>225.8824427290047</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>216.395641246588</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>211.564022924373</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>245.5133545071318</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y15" t="n">
-        <v>242.8962664135933</v>
+        <v>205.160364157794</v>
       </c>
     </row>
     <row r="16">
@@ -23679,22 +23679,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K16" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M16" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N16" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q16" t="n">
         <v>134.42632090912</v>
@@ -23734,28 +23734,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>265.7536021345599</v>
       </c>
       <c r="D17" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>292.1150375966388</v>
       </c>
       <c r="F17" t="n">
-        <v>399.146417573369</v>
+        <v>339.3898475006066</v>
       </c>
       <c r="G17" t="n">
-        <v>376.1630813084857</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>293.2419767295039</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>183.8931787140388</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>10.55418389011865</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
@@ -23794,7 +23794,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>257.5482081396448</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23816,13 +23816,13 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>120.3740984827887</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>135.7357014008793</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>128.4251056210899</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
         <v>160.7697824785144</v>
@@ -23834,7 +23834,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>6.568865553980373</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
@@ -23867,19 +23867,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>215.4057394232825</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.8962664135933</v>
+        <v>183.1396963408309</v>
       </c>
     </row>
     <row r="19">
@@ -23916,22 +23916,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K19" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M19" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N19" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q19" t="n">
         <v>134.42632090912</v>
@@ -23974,16 +23974,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
-        <v>319.1317556432476</v>
+        <v>259.3751855704852</v>
       </c>
       <c r="E20" t="n">
-        <v>308.2337110395638</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>347.4215736766455</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>353.8788064730712</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.64898696882644</v>
+        <v>0.3647121334119277</v>
       </c>
       <c r="R20" t="n">
-        <v>129.1484032259903</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S20" t="n">
         <v>224.8250298051639</v>
@@ -24025,7 +24025,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7521737158166</v>
+        <v>180.908656376168</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24071,7 +24071,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J21" t="n">
-        <v>58.29370945070387</v>
+        <v>21.06614395595001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>139.1693410830749</v>
+        <v>71.32582374342635</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>135.6247961641856</v>
       </c>
       <c r="T21" t="n">
-        <v>177.3821879610182</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>197.9085800567725</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
-        <v>197.5750812834489</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
@@ -24116,7 +24116,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>219.8660284873679</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24220,13 +24220,13 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>355.1301409553276</v>
+        <v>344.5131519185694</v>
       </c>
       <c r="H23" t="n">
-        <v>267.7576487320771</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I23" t="n">
-        <v>158.408850716612</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
         <v>62.27902778684214</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.2082294730605</v>
+        <v>1.616046615668324</v>
       </c>
       <c r="R23" t="n">
         <v>180.8732471227138</v>
@@ -24262,13 +24262,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>171.5430018216663</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>236.0952701068728</v>
       </c>
       <c r="W23" t="n">
-        <v>248.182553585143</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
         <v>348.8168793035129</v>
@@ -24305,7 +24305,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
-        <v>40.50331948849512</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J24" t="n">
         <v>58.29370945070387</v>
@@ -24335,25 +24335,25 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S24" t="n">
-        <v>203.4683135038341</v>
+        <v>126.2591416096838</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1070318577418</v>
+        <v>151.8978599635914</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>172.4242520593457</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>181.2940865758048</v>
       </c>
       <c r="W24" t="n">
-        <v>206.0400848687808</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>152.8238918168126</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>165.687094519443</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>287.3471557029128</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>252.5395727858555</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>321.9372456792187</v>
       </c>
       <c r="G26" t="n">
         <v>421.7223238127198</v>
@@ -24487,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.616046615668324</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>103.6640752285635</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S26" t="n">
-        <v>147.6158579110136</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T26" t="n">
-        <v>140.1285040214831</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
         <v>248.7521737158166</v>
@@ -24511,7 +24511,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>300.7198045010318</v>
       </c>
     </row>
     <row r="27">
@@ -24530,13 +24530,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>110.2513734034525</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>105.9785095209563</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>83.5606105843641</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H27" t="n">
         <v>135.3823959320322</v>
@@ -24578,19 +24578,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U27" t="n">
-        <v>249.633423953496</v>
+        <v>181.6275853491284</v>
       </c>
       <c r="V27" t="n">
         <v>172.090753286022</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>165.687094519443</v>
       </c>
     </row>
     <row r="28">
@@ -24682,16 +24682,16 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>267.0049366168163</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>241.9225837490973</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>282.749383042137</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>321.9372456792187</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
         <v>421.7223238127198</v>
@@ -24727,13 +24727,13 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
-        <v>180.8732471227138</v>
+        <v>103.6640752285635</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3376759156334</v>
+        <v>140.1285040214831</v>
       </c>
       <c r="U29" t="n">
         <v>248.7521737158166</v>
@@ -24742,7 +24742,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>258.7995426219012</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.8035854868841</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
         <v>203.8424276152394</v>
@@ -24770,10 +24770,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>96.77517623117359</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>92.76394387414685</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
         <v>135.3823959320322</v>
@@ -24812,16 +24812,16 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>151.8978599635914</v>
+        <v>161.1011932533742</v>
       </c>
       <c r="U30" t="n">
-        <v>249.633423953496</v>
+        <v>172.4242520593457</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>172.090753286022</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24964,25 +24964,25 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
-        <v>180.8732471227138</v>
+        <v>103.6640752285635</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3376759156334</v>
+        <v>140.1285040214831</v>
       </c>
       <c r="U32" t="n">
-        <v>182.1599908584244</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V32" t="n">
-        <v>236.0952701068728</v>
+        <v>246.7122591436309</v>
       </c>
       <c r="W32" t="n">
-        <v>248.182553585143</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>271.6077074093625</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.8035854868841</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25013,10 +25013,10 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H33" t="n">
-        <v>67.37655732766463</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I33" t="n">
-        <v>31.29998619871238</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J33" t="n">
         <v>58.29370945070387</v>
@@ -25055,16 +25055,16 @@
         <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>172.090753286022</v>
       </c>
       <c r="W33" t="n">
         <v>206.0400848687808</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>152.8238918168126</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>174.8904278092257</v>
       </c>
     </row>
     <row r="34">
@@ -25174,7 +25174,7 @@
         <v>344.9668206262274</v>
       </c>
       <c r="I35" t="n">
-        <v>235.6180226107624</v>
+        <v>175.8614525379999</v>
       </c>
       <c r="J35" t="n">
         <v>62.27902778684214</v>
@@ -25201,7 +25201,7 @@
         <v>0.3647121334119277</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>113.0297297830652</v>
       </c>
       <c r="S35" t="n">
         <v>224.8250298051639</v>
@@ -25210,19 +25210,19 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7521737158166</v>
+        <v>180.908656376168</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>265.6351554065309</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>280.9733619638644</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>310.0854590555335</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.1692400413859</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
@@ -25256,7 +25256,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T36" t="n">
-        <v>229.1070318577418</v>
+        <v>161.2635145180932</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W36" t="n">
-        <v>215.4057394232825</v>
+        <v>223.4926866901687</v>
       </c>
       <c r="X36" t="n">
-        <v>228.5702030889044</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.0527490739448</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25393,7 +25393,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>273.840549401446</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25402,10 +25402,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>331.3029002337205</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>353.8788064730712</v>
       </c>
       <c r="H38" t="n">
         <v>344.9668206262274</v>
@@ -25438,13 +25438,13 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
-        <v>113.0297297830652</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
         <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>157.581105842871</v>
       </c>
       <c r="U38" t="n">
         <v>248.7521737158166</v>
@@ -25453,7 +25453,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>257.5482081396448</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25472,16 +25472,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>135.9989102755908</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>119.6170279579543</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>106.1408307856753</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>160.7697824785144</v>
@@ -25526,16 +25526,16 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W39" t="n">
-        <v>223.4926866901687</v>
+        <v>215.4057394232825</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>170.2764936382006</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319.1987875479328</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>333.5971194742085</v>
+        <v>295.8612172184091</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25639,7 +25639,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>353.7888775242387</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
         <v>421.7223238127198</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>28.25730819778649</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R41" t="n">
         <v>180.8732471227138</v>
@@ -25684,19 +25684,19 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>215.5143910089085</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>275.5685397452238</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>287.6558232234941</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.5714363460518</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.6552173319041</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>163.8915063399654</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25721,7 +25721,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7697824785144</v>
+        <v>123.0338802227151</v>
       </c>
       <c r="H42" t="n">
         <v>135.3823959320322</v>
@@ -25763,19 +25763,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U42" t="n">
-        <v>249.633423953496</v>
+        <v>211.8975216976967</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>216.0621424732643</v>
       </c>
       <c r="W42" t="n">
-        <v>237.8917167138007</v>
+        <v>245.5133545071318</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.538726364463</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>319.1987875479328</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25876,10 +25876,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>353.7888775242387</v>
+        <v>361.4105153175697</v>
       </c>
       <c r="G44" t="n">
-        <v>376.3647837635894</v>
+        <v>383.9864215569204</v>
       </c>
       <c r="H44" t="n">
         <v>344.9668206262274</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.2082294730605</v>
+        <v>34.97044676615245</v>
       </c>
       <c r="R44" t="n">
-        <v>180.8732471227138</v>
+        <v>143.1373448669144</v>
       </c>
       <c r="S44" t="n">
         <v>224.8250298051639</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.9780551199081</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>139.1693410830749</v>
+        <v>101.4334388272756</v>
       </c>
       <c r="S45" t="n">
-        <v>158.1107734547038</v>
+        <v>165.7324112480348</v>
       </c>
       <c r="T45" t="n">
-        <v>183.7494918086114</v>
+        <v>191.3711296019424</v>
       </c>
       <c r="U45" t="n">
-        <v>209.682502678222</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>237.8917167138007</v>
+        <v>272.5404786340317</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>348246.1757395305</v>
+        <v>346978.1155943538</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354162.1174020348</v>
+        <v>348246.1757395305</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416515.3875642581</v>
+        <v>422120.3696230615</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416515.387564258</v>
+        <v>422120.3696230615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>431402.0256468083</v>
+        <v>442171.2289346873</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>431402.0256468082</v>
+        <v>442171.2289346873</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448347.2200876616</v>
+        <v>448347.2200876617</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448347.2200876616</v>
+        <v>448347.2200876617</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>442171.2289346872</v>
+        <v>442171.2289346874</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>442171.2289346874</v>
+        <v>442171.2289346873</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427147.904501341</v>
+        <v>422120.3696230615</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427147.9045013412</v>
+        <v>422120.3696230615</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142332.7213668073</v>
+        <v>141754.9928791209</v>
       </c>
       <c r="C2" t="n">
-        <v>142332.7213668073</v>
+        <v>142332.7213668071</v>
       </c>
       <c r="D2" t="n">
-        <v>145122.6670763084</v>
+        <v>142332.7213668072</v>
       </c>
       <c r="E2" t="n">
-        <v>174179.44146791</v>
+        <v>176291.5091734399</v>
       </c>
       <c r="F2" t="n">
-        <v>174179.44146791</v>
+        <v>176291.5091734399</v>
       </c>
       <c r="G2" t="n">
-        <v>179768.6738097623</v>
+        <v>183775.2157425846</v>
       </c>
       <c r="H2" t="n">
-        <v>179768.6738097623</v>
+        <v>183775.2157425846</v>
       </c>
       <c r="I2" t="n">
         <v>186044.1152410152</v>
@@ -26352,10 +26352,10 @@
         <v>183775.2157425846</v>
       </c>
       <c r="O2" t="n">
-        <v>178185.9834007324</v>
+        <v>176291.5091734399</v>
       </c>
       <c r="P2" t="n">
-        <v>178185.9834007324</v>
+        <v>176291.50917344</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300331.6078316385</v>
+        <v>297965.4180442812</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2236.019182749852</v>
       </c>
       <c r="D3" t="n">
-        <v>11611.39117122186</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120731.6779357658</v>
+        <v>134161.3658224724</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6163.069085671684</v>
+        <v>8252.045680256819</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6776.817985403736</v>
+        <v>2490.524224787662</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4952.483936132731</v>
+        <v>7069.979208154162</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16136.49255031374</v>
+        <v>16216.46554307179</v>
       </c>
       <c r="C4" t="n">
         <v>16136.49255031374</v>
       </c>
       <c r="D4" t="n">
-        <v>15542.56089064864</v>
+        <v>16136.49255031374</v>
       </c>
       <c r="E4" t="n">
-        <v>10117.87746574952</v>
+        <v>10800.85854851217</v>
       </c>
       <c r="F4" t="n">
-        <v>10117.87746574953</v>
+        <v>10800.85854851217</v>
       </c>
       <c r="G4" t="n">
-        <v>11979.26689273458</v>
+        <v>13411.55202582738</v>
       </c>
       <c r="H4" t="n">
-        <v>11979.26689273458</v>
+        <v>13411.55202582738</v>
       </c>
       <c r="I4" t="n">
-        <v>14300.05854155472</v>
+        <v>14300.05854155471</v>
       </c>
       <c r="J4" t="n">
         <v>14300.05854155471</v>
       </c>
       <c r="K4" t="n">
-        <v>14300.05854155472</v>
+        <v>14300.05854155471</v>
       </c>
       <c r="L4" t="n">
         <v>14300.05854155471</v>
@@ -26456,10 +26456,10 @@
         <v>13411.55202582738</v>
       </c>
       <c r="O4" t="n">
-        <v>11413.47624804631</v>
+        <v>10800.85854851217</v>
       </c>
       <c r="P4" t="n">
-        <v>11413.47624804631</v>
+        <v>10800.85854851217</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40368.52827033812</v>
+      </c>
+      <c r="C5" t="n">
         <v>40422.05903150924</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>40422.05903150925</v>
       </c>
-      <c r="D5" t="n">
-        <v>40717.62674470944</v>
-      </c>
       <c r="E5" t="n">
-        <v>11906.86567606057</v>
+        <v>12423.48544355589</v>
       </c>
       <c r="F5" t="n">
-        <v>11906.86567606057</v>
+        <v>12423.48544355589</v>
       </c>
       <c r="G5" t="n">
-        <v>13274.01309532408</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="H5" t="n">
-        <v>13274.01309532408</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="I5" t="n">
         <v>14823.46023756763</v>
@@ -26508,10 +26508,10 @@
         <v>14254.02844065392</v>
       </c>
       <c r="O5" t="n">
-        <v>12886.88102139042</v>
+        <v>12423.48544355589</v>
       </c>
       <c r="P5" t="n">
-        <v>12886.88102139042</v>
+        <v>12423.48544355589</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214557.4380466542</v>
+        <v>-229865.3175468516</v>
       </c>
       <c r="C6" t="n">
-        <v>85774.16978498429</v>
+        <v>66495.76291431894</v>
       </c>
       <c r="D6" t="n">
-        <v>77251.08826972848</v>
+        <v>68731.78209706885</v>
       </c>
       <c r="E6" t="n">
-        <v>31423.0203903341</v>
+        <v>3480.496804633258</v>
       </c>
       <c r="F6" t="n">
-        <v>152154.6983261</v>
+        <v>137641.8626271056</v>
       </c>
       <c r="G6" t="n">
-        <v>148352.3247360319</v>
+        <v>132788.6540210633</v>
       </c>
       <c r="H6" t="n">
-        <v>154515.3938217036</v>
+        <v>141040.6997013202</v>
       </c>
       <c r="I6" t="n">
-        <v>150143.7784764891</v>
+        <v>139469.1794955807</v>
       </c>
       <c r="J6" t="n">
-        <v>156920.5964618929</v>
+        <v>141959.7037203684</v>
       </c>
       <c r="K6" t="n">
-        <v>156920.5964618929</v>
+        <v>141959.7037203683</v>
       </c>
       <c r="L6" t="n">
-        <v>156920.5964618928</v>
+        <v>141959.7037203684</v>
       </c>
       <c r="M6" t="n">
-        <v>151157.1513399706</v>
+        <v>133970.720493166</v>
       </c>
       <c r="N6" t="n">
-        <v>156109.6352761033</v>
+        <v>141040.6997013201</v>
       </c>
       <c r="O6" t="n">
-        <v>153885.6261312957</v>
+        <v>137641.8626271056</v>
       </c>
       <c r="P6" t="n">
-        <v>153885.6261312957</v>
+        <v>137641.8626271057</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>309.2168931347763</v>
+      </c>
+      <c r="C3" t="n">
         <v>311.6724326380388</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>311.6724326380389</v>
-      </c>
-      <c r="D3" t="n">
-        <v>325.2305846196994</v>
       </c>
       <c r="E3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="G3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="H3" t="n">
         <v>464.6395681836371</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="F4" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="G4" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H4" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I4" t="n">
         <v>77.20917189415033</v>
@@ -26828,10 +26828,10 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O4" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="P4" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380388</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.455539503262514</v>
       </c>
       <c r="D3" t="n">
-        <v>13.55815198166058</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.4089835639377</v>
+        <v>152.9671355455983</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>22.48597729051821</v>
+        <v>30.10761508384923</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.48432799742682</v>
+        <v>9.365654554501759</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>19.87321205170355</v>
+        <v>28.37024770129758</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.48597729051821</v>
+        <v>30.10761508384923</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.252954503067492</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H2" t="n">
-        <v>12.83182030453995</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I2" t="n">
-        <v>48.30452847950952</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J2" t="n">
-        <v>106.3429472547246</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K2" t="n">
-        <v>159.3805113695716</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L2" t="n">
-        <v>197.7256177428234</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M2" t="n">
-        <v>220.0078473867499</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N2" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O2" t="n">
-        <v>211.108738028713</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1764237342343</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.3049905931297</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R2" t="n">
-        <v>78.70590330331339</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S2" t="n">
-        <v>28.5517007386505</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I3" t="n">
-        <v>23.08140185102458</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J3" t="n">
-        <v>63.33713086279241</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K3" t="n">
-        <v>108.2532448342894</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L3" t="n">
-        <v>145.559846959869</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N3" t="n">
-        <v>174.3572036132365</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O3" t="n">
-        <v>159.5027778614688</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P3" t="n">
-        <v>128.015041247122</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.57466490091964</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R3" t="n">
-        <v>41.62297128701962</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S3" t="n">
-        <v>12.45219577568013</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T3" t="n">
-        <v>2.70214118485243</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H4" t="n">
-        <v>4.996977690491838</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I4" t="n">
-        <v>16.9018427404366</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L4" t="n">
-        <v>83.55886825184405</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M4" t="n">
-        <v>88.10111075373281</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O4" t="n">
-        <v>79.44070463370866</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.06253732834386</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R4" t="n">
-        <v>25.27101396438917</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T4" t="n">
-        <v>2.40141054655538</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>48.30452847950953</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J5" t="n">
         <v>106.3429472547246</v>
@@ -31311,7 +31311,7 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>78.70590330331341</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S5" t="n">
         <v>28.5517007386505</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H6" t="n">
         <v>6.474553742160015</v>
@@ -31387,7 +31387,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.57466490091966</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R6" t="n">
         <v>41.62297128701962</v>
@@ -31439,7 +31439,7 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>4.996977690491839</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I7" t="n">
         <v>16.9018427404366</v>
@@ -31451,16 +31451,16 @@
         <v>65.29792932973992</v>
       </c>
       <c r="L7" t="n">
-        <v>83.55886825184406</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M7" t="n">
-        <v>88.10111075373283</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N7" t="n">
         <v>86.00626325567394</v>
       </c>
       <c r="O7" t="n">
-        <v>79.44070463370868</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P7" t="n">
         <v>67.97524661994207</v>
@@ -31478,7 +31478,7 @@
         <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.307459636662107</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H8" t="n">
-        <v>13.39002100396581</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I8" t="n">
-        <v>50.40583764241592</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J8" t="n">
-        <v>110.9690023371506</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K8" t="n">
-        <v>166.3137687570576</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L8" t="n">
-        <v>206.3269366125556</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M8" t="n">
-        <v>229.5784719260454</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N8" t="n">
-        <v>233.2932916187116</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O8" t="n">
-        <v>220.2922398566527</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P8" t="n">
-        <v>188.0143300765569</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.1909318385952</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R8" t="n">
-        <v>82.12971140147614</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S8" t="n">
-        <v>29.79373647043779</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T8" t="n">
-        <v>5.723404559488376</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1045967709329685</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6995525782385986</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H9" t="n">
-        <v>6.756205163514888</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I9" t="n">
-        <v>24.08547254023246</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J9" t="n">
-        <v>66.09237757823533</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K9" t="n">
-        <v>112.9624003202214</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L9" t="n">
-        <v>151.891887656587</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M9" t="n">
-        <v>177.2506686177361</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N9" t="n">
-        <v>181.9419663902222</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O9" t="n">
-        <v>166.4413539987248</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P9" t="n">
-        <v>133.5838603129478</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.29727296954464</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R9" t="n">
-        <v>43.43362411204213</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S9" t="n">
-        <v>12.99388231947572</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T9" t="n">
-        <v>2.819687804391544</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04602319593674993</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5864813821010971</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H10" t="n">
-        <v>5.214352651771576</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I10" t="n">
-        <v>17.63709465445845</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J10" t="n">
-        <v>41.46423371454757</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K10" t="n">
-        <v>68.13847330229109</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L10" t="n">
-        <v>87.19378657164859</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M10" t="n">
-        <v>91.93362246881107</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N10" t="n">
-        <v>89.74764640825249</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O10" t="n">
-        <v>82.89647753552602</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P10" t="n">
-        <v>70.93225734066357</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.1098182775746</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R10" t="n">
-        <v>26.3703355988366</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S10" t="n">
-        <v>10.22077099534366</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T10" t="n">
-        <v>2.505874996250142</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03198989356915079</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,10 +31849,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>237.1098912171571</v>
+        <v>245.6069268667512</v>
       </c>
       <c r="N12" t="n">
-        <v>221.3261205280803</v>
+        <v>229.8231561776743</v>
       </c>
       <c r="O12" t="n">
         <v>237.7858741062053</v>
@@ -31992,7 +31992,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H14" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I14" t="n">
         <v>72.01212845185798</v>
@@ -32004,22 +32004,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L14" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M14" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N14" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O14" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P14" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R14" t="n">
         <v>117.334332763479</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H15" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I15" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J15" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K15" t="n">
         <v>161.3833488850657</v>
@@ -32086,10 +32086,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>237.1098912171571</v>
+        <v>245.6069268667512</v>
       </c>
       <c r="N15" t="n">
-        <v>221.3261205280803</v>
+        <v>229.8231561776743</v>
       </c>
       <c r="O15" t="n">
         <v>237.7858741062053</v>
@@ -32101,16 +32101,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S15" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T15" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,16 +32150,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H16" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I16" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K16" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L16" t="n">
         <v>124.569106525823</v>
@@ -32177,10 +32177,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R16" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S16" t="n">
         <v>14.60186970832839</v>
@@ -32189,7 +32189,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H17" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I17" t="n">
         <v>72.01212845185798</v>
@@ -32241,22 +32241,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L17" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M17" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O17" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R17" t="n">
         <v>117.334332763479</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H18" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J18" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K18" t="n">
         <v>161.3833488850657</v>
@@ -32326,7 +32326,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>243.8120978185985</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32338,16 +32338,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S18" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H19" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I19" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K19" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L19" t="n">
         <v>124.569106525823</v>
@@ -32414,10 +32414,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R19" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S19" t="n">
         <v>14.60186970832839</v>
@@ -32426,7 +32426,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>243.8120978185985</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>253.2285646600822</v>
+        <v>245.6069268667512</v>
       </c>
       <c r="N42" t="n">
-        <v>237.4447939710053</v>
+        <v>229.8231561776743</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>253.2285646600822</v>
+        <v>245.6069268667512</v>
       </c>
       <c r="N45" t="n">
-        <v>237.4447939710053</v>
+        <v>229.8231561776743</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="M11" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N11" t="n">
-        <v>29.23886660620531</v>
+        <v>36.21121933637312</v>
       </c>
       <c r="O11" t="n">
-        <v>28.05749825847984</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>28.55120600833615</v>
       </c>
       <c r="L12" t="n">
-        <v>28.05749825847984</v>
+        <v>16.15704897763101</v>
       </c>
       <c r="M12" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N12" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="O12" t="n">
-        <v>29.23886660620531</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>13.9620574439972</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="M14" t="n">
-        <v>29.23886660620531</v>
+        <v>36.21121933637313</v>
       </c>
       <c r="N14" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="O14" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="P14" t="n">
-        <v>14.09544081448263</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>28.05749825847987</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="M15" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N15" t="n">
-        <v>29.23886660620531</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="O15" t="n">
-        <v>29.23886660620528</v>
+        <v>36.21121933637311</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>35.53951039954501</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M17" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N17" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O17" t="n">
-        <v>51.72484389672351</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="P17" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>28.55120600833615</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>49.9370263438029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M18" t="n">
-        <v>45.35754004913034</v>
+        <v>65.10236512390519</v>
       </c>
       <c r="N18" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O18" t="n">
-        <v>29.23886660620528</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.72484389672351</v>
+        <v>51.00692430942247</v>
       </c>
       <c r="M20" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N20" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O20" t="n">
-        <v>35.53951039954495</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P20" t="n">
         <v>14.09544081448269</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L21" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M21" t="n">
-        <v>49.63495121402763</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N21" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O21" t="n">
-        <v>51.72484389672351</v>
+        <v>59.0371364060872</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L24" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="M24" t="n">
+        <v>45.53840338504043</v>
+      </c>
+      <c r="N24" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="N24" t="n">
-        <v>74.08960939337661</v>
       </c>
       <c r="O24" t="n">
         <v>77.20917189415033</v>
@@ -36682,16 +36682,16 @@
         <v>77.20917189415033</v>
       </c>
       <c r="M27" t="n">
-        <v>45.35754004913036</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N27" t="n">
-        <v>67.84351733964857</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="O27" t="n">
-        <v>29.23886660620531</v>
+        <v>45.53840338504045</v>
       </c>
       <c r="P27" t="n">
-        <v>57.51682317835681</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
-        <v>74.08960939337661</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="M33" t="n">
-        <v>77.20917189415033</v>
+        <v>45.53840338504043</v>
       </c>
       <c r="N33" t="n">
         <v>77.20917189415033</v>
@@ -37314,10 +37314,10 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M35" t="n">
-        <v>60.29863175498012</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N35" t="n">
-        <v>67.84351733964857</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="O35" t="n">
         <v>67.84351733964857</v>
@@ -37390,7 +37390,7 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L36" t="n">
-        <v>36.55115911556899</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M36" t="n">
         <v>67.84351733964857</v>
@@ -37399,7 +37399,7 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O36" t="n">
-        <v>67.84351733964857</v>
+        <v>36.55115911556899</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M38" t="n">
-        <v>67.84351733964857</v>
+        <v>60.29863175498012</v>
       </c>
       <c r="N38" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O38" t="n">
-        <v>60.29863175498013</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448269</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>19.74482507477481</v>
       </c>
       <c r="L39" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="M39" t="n">
-        <v>65.10236512390519</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
         <v>67.84351733964857</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.42947135387474</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="M41" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N41" t="n">
-        <v>45.35754004913036</v>
+        <v>22.11577852189044</v>
       </c>
       <c r="O41" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448269</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="M42" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N42" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="O42" t="n">
-        <v>43.52491216835742</v>
+        <v>36.21121933637311</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>45.35754004913036</v>
+        <v>22.11577852189044</v>
       </c>
       <c r="M44" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N44" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="O44" t="n">
-        <v>29.42947135387475</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="P44" t="n">
         <v>14.09544081448269</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L45" t="n">
-        <v>45.35754004913036</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M45" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="N45" t="n">
-        <v>45.35754004913036</v>
+        <v>37.73590225579934</v>
       </c>
       <c r="O45" t="n">
-        <v>43.52491216835742</v>
+        <v>31.03186749368568</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
